--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -933,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -1083,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
@@ -1233,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
         <v>18</v>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Var.Name</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Seitenumbruch.im.Inhaltsverzeichnis</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">ja</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">nominale Beispielvariable</t>
   </si>
   <si>
-    <t xml:space="preserve">skala1item1</t>
+    <t xml:space="preserve">skala1_item1</t>
   </si>
   <si>
     <t xml:space="preserve">Likert-Skalenindikator</t>
   </si>
   <si>
-    <t xml:space="preserve">skala1item2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skala1item3</t>
+    <t xml:space="preserve">skala1_item2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skala1_item3</t>
   </si>
   <si>
     <t xml:space="preserve">skala1</t>
   </si>
   <si>
-    <t xml:space="preserve">Likert-Skalenwert</t>
+    <t xml:space="preserve">Skala: Likert-Skalenwert</t>
   </si>
   <si>
     <t xml:space="preserve">pv</t>
@@ -119,46 +119,64 @@
     <t xml:space="preserve">sh</t>
   </si>
   <si>
-    <t xml:space="preserve">plausible value (imputiert)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv1</t>
+    <t xml:space="preserve">IMPUTATION 1: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_1</t>
   </si>
   <si>
     <t xml:space="preserve">ds</t>
   </si>
   <si>
-    <t xml:space="preserve">pv2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_kat1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kompetenzstufe des plausible value (imputiert)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_kat2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_kat3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_kat4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_kat5</t>
+    <t xml:space="preserve">pv_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 2: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 3: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 4: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 5: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 1: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 2: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 3: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 4: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_5</t>
   </si>
   <si>
     <t xml:space="preserve">sf1</t>
@@ -171,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve">skalenwert_fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skala: fake-skala</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1121,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -1150,7 +1171,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1159,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1171,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
@@ -1200,7 +1221,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1209,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1221,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
@@ -1250,7 +1271,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -1259,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1271,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
@@ -1300,7 +1321,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1309,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1321,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
@@ -1350,7 +1371,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1359,7 +1380,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1371,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -1400,7 +1421,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1409,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1421,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1450,7 +1471,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -1459,7 +1480,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1471,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1500,7 +1521,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1546,7 +1567,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1592,7 +1613,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -1638,7 +1659,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1646,7 +1667,9 @@
       <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1679,9 @@
       <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="H24"/>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
       <c r="I24" t="s">
         <v>19</v>
       </c>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -20,6 +20,9 @@
     <t xml:space="preserve">in.DS.und.SH</t>
   </si>
   <si>
+    <t xml:space="preserve">Unterteilung.im.Skalenhandbuch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Layout</t>
   </si>
   <si>
@@ -68,9 +71,18 @@
     <t xml:space="preserve">ja</t>
   </si>
   <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schueler-ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">nein</t>
   </si>
   <si>
@@ -98,7 +110,13 @@
     <t xml:space="preserve">skala1_item1</t>
   </si>
   <si>
-    <t xml:space="preserve">Likert-Skalenindikator</t>
+    <t xml:space="preserve">ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
   </si>
   <si>
     <t xml:space="preserve">skala1_item2</t>
@@ -113,19 +131,16 @@
     <t xml:space="preserve">Skala: Likert-Skalenwert</t>
   </si>
   <si>
-    <t xml:space="preserve">pv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh</t>
+    <t xml:space="preserve">pv_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVs</t>
   </si>
   <si>
     <t xml:space="preserve">IMPUTATION 1: plausible value</t>
   </si>
   <si>
-    <t xml:space="preserve">pv_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds</t>
+    <t xml:space="preserve">2.1</t>
   </si>
   <si>
     <t xml:space="preserve">pv_2</t>
@@ -177,21 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">pvkat_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skalenwert_fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skala: fake-skala</t>
   </si>
 </sst>
 </file>
@@ -572,1139 +572,960 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2"/>
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23"/>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Var.Name</t>
   </si>
@@ -116,6 +116,9 @@
     <t xml:space="preserve">Scale</t>
   </si>
   <si>
+    <t xml:space="preserve">Likert-Skalenindikator</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
@@ -131,18 +134,27 @@
     <t xml:space="preserve">Skala: Likert-Skalenwert</t>
   </si>
   <si>
+    <t xml:space="preserve">pv_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plausible Value</t>
+  </si>
+  <si>
     <t xml:space="preserve">pv_1</t>
   </si>
   <si>
-    <t xml:space="preserve">PVs</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMPUTATION 1: plausible value</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pv_2</t>
   </si>
   <si>
@@ -165,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">IMPUTATION 5: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical plausible value</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_1</t>
@@ -800,13 +818,13 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -841,7 +859,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -853,13 +871,13 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -894,7 +912,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -906,13 +924,13 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -947,7 +965,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -959,19 +977,19 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1000,31 +1018,29 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E10"/>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1053,31 +1069,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1106,31 +1122,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1159,31 +1175,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1212,31 +1228,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -1265,31 +1281,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -1318,31 +1334,29 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
+      <c r="E16"/>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -1371,31 +1385,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1424,31 +1438,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -1477,54 +1491,160 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -534,10 +534,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -534,10 +534,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -614,9 +614,7 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>22</v>
       </c>
@@ -667,9 +665,7 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
+      <c r="H3"/>
       <c r="I3" t="s">
         <v>25</v>
       </c>
@@ -720,9 +716,7 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4"/>
       <c r="I4" t="s">
         <v>27</v>
       </c>
@@ -773,9 +767,7 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
         <v>30</v>
       </c>
@@ -826,9 +818,7 @@
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6"/>
       <c r="I6" t="s">
         <v>20</v>
       </c>
@@ -879,9 +869,7 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
+      <c r="H7"/>
       <c r="I7" t="s">
         <v>20</v>
       </c>
@@ -932,9 +920,7 @@
       <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
@@ -985,9 +971,7 @@
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9"/>
       <c r="I9" t="s">
         <v>39</v>
       </c>
@@ -1036,9 +1020,7 @@
       <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
         <v>44</v>
       </c>
@@ -1089,9 +1071,7 @@
       <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
         <v>20</v>
       </c>
@@ -1142,9 +1122,7 @@
       <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
+      <c r="H12"/>
       <c r="I12" t="s">
         <v>20</v>
       </c>
@@ -1195,9 +1173,7 @@
       <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
+      <c r="H13"/>
       <c r="I13" t="s">
         <v>20</v>
       </c>
@@ -1248,9 +1224,7 @@
       <c r="G14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14"/>
       <c r="I14" t="s">
         <v>20</v>
       </c>
@@ -1301,9 +1275,7 @@
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
+      <c r="H15"/>
       <c r="I15" t="s">
         <v>20</v>
       </c>
@@ -1352,9 +1324,7 @@
       <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
+      <c r="H16"/>
       <c r="I16" t="s">
         <v>56</v>
       </c>
@@ -1405,9 +1375,7 @@
       <c r="G17" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
+      <c r="H17"/>
       <c r="I17" t="s">
         <v>20</v>
       </c>
@@ -1458,9 +1426,7 @@
       <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
+      <c r="H18"/>
       <c r="I18" t="s">
         <v>20</v>
       </c>
@@ -1511,9 +1477,7 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
+      <c r="H19"/>
       <c r="I19" t="s">
         <v>20</v>
       </c>
@@ -1564,9 +1528,7 @@
       <c r="G20" t="s">
         <v>43</v>
       </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
+      <c r="H20"/>
       <c r="I20" t="s">
         <v>20</v>
       </c>
@@ -1617,9 +1579,7 @@
       <c r="G21" t="s">
         <v>43</v>
       </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H21"/>
       <c r="I21" t="s">
         <v>20</v>
       </c>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Var.Name</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">nein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School-ID</t>
   </si>
   <si>
     <t xml:space="preserve">varMetrisch</t>
@@ -656,9 +662,7 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -679,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -724,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -747,7 +751,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -759,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -769,19 +773,19 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
@@ -801,26 +805,26 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -849,25 +853,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -900,25 +904,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
@@ -951,29 +955,29 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -985,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -1005,24 +1009,26 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1034,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
@@ -1051,29 +1057,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1105,10 +1109,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1120,7 +1124,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
@@ -1156,10 +1160,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1171,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
@@ -1207,10 +1211,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1222,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
@@ -1258,10 +1262,10 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1273,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
@@ -1309,24 +1313,26 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -1358,26 +1364,24 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
+      <c r="E17"/>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1409,10 +1413,10 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1424,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
@@ -1460,10 +1464,10 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1475,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
@@ -1511,10 +1515,10 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1526,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
@@ -1562,22 +1566,22 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
@@ -1605,6 +1609,57 @@
         <v>20</v>
       </c>
       <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
         <v>23</v>
       </c>
     </row>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -1,229 +1,239 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussejoh\Desktop\eatCodebook\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C466F2B2-EDEF-4492-ABCA-3650E36EE266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">Var.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in.DS.und.SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterteilung.im.Skalenhandbuch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabelSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmerkung.Var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gliederung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reihenfolge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rekodiert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuelleSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruktionen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hintergrundmodell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGM.Reihenfolge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGM.Variable.erstellt.aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intern.extern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenumbruch.im.Inhaltsverzeichnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schueler-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varMetrisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metrische Beispielvariable, Kompetenzwert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varOrdinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordinale Beispielvariable, Kompetenzstufe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mueller (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varCat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nominale Beispielvariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skala1_item1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert-Skalenindikator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skala1_item2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skala1_item3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skala1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skala: Likert-Skalenwert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_pooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plausible Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 1: plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 2: plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 3: plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 4: plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 5: plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_pooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorical plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 1: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 2: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 3: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUTATION 4: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvkat_5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="69">
+  <si>
+    <t>Var.Name</t>
+  </si>
+  <si>
+    <t>in.DS.und.SH</t>
+  </si>
+  <si>
+    <t>Unterteilung.im.Skalenhandbuch</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>LabelSH</t>
+  </si>
+  <si>
+    <t>Anmerkung.Var</t>
+  </si>
+  <si>
+    <t>Gliederung</t>
+  </si>
+  <si>
+    <t>Reihenfolge</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>rekodiert</t>
+  </si>
+  <si>
+    <t>QuelleSH</t>
+  </si>
+  <si>
+    <t>Instruktionen</t>
+  </si>
+  <si>
+    <t>Hintergrundmodell</t>
+  </si>
+  <si>
+    <t>HGM.Reihenfolge</t>
+  </si>
+  <si>
+    <t>HGM.Variable.erstellt.aus</t>
+  </si>
+  <si>
+    <t>intern.extern</t>
+  </si>
+  <si>
+    <t>Seitenumbruch.im.Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Schueler-ID</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>IDSCH</t>
+  </si>
+  <si>
+    <t>School-ID</t>
+  </si>
+  <si>
+    <t>varMetrisch</t>
+  </si>
+  <si>
+    <t>metrische Beispielvariable, Kompetenzwert</t>
+  </si>
+  <si>
+    <t>varOrdinal</t>
+  </si>
+  <si>
+    <t>ordinale Beispielvariable, Kompetenzstufe</t>
+  </si>
+  <si>
+    <t>Mueller (2019)</t>
+  </si>
+  <si>
+    <t>varCat</t>
+  </si>
+  <si>
+    <t>nominale Beispielvariable</t>
+  </si>
+  <si>
+    <t>skala1_item1</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Likert-Skalenindikator</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>skala1_item2</t>
+  </si>
+  <si>
+    <t>skala1_item3</t>
+  </si>
+  <si>
+    <t>skala1</t>
+  </si>
+  <si>
+    <t>Skala: Likert-Skalenwert</t>
+  </si>
+  <si>
+    <t>pv_pooled</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>PVs</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Plausible Value</t>
+  </si>
+  <si>
+    <t>pv_1</t>
+  </si>
+  <si>
+    <t>IMPUTATION 1: plausible value</t>
+  </si>
+  <si>
+    <t>pv_2</t>
+  </si>
+  <si>
+    <t>IMPUTATION 2: plausible value</t>
+  </si>
+  <si>
+    <t>pv_3</t>
+  </si>
+  <si>
+    <t>IMPUTATION 3: plausible value</t>
+  </si>
+  <si>
+    <t>pv_4</t>
+  </si>
+  <si>
+    <t>IMPUTATION 4: plausible value</t>
+  </si>
+  <si>
+    <t>pv_5</t>
+  </si>
+  <si>
+    <t>IMPUTATION 5: plausible value</t>
+  </si>
+  <si>
+    <t>pvkat_pooled</t>
+  </si>
+  <si>
+    <t>categorical plausible value</t>
+  </si>
+  <si>
+    <t>pvkat_1</t>
+  </si>
+  <si>
+    <t>IMPUTATION 1: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t>pvkat_2</t>
+  </si>
+  <si>
+    <t>IMPUTATION 2: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t>pvkat_3</t>
+  </si>
+  <si>
+    <t>IMPUTATION 3: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t>pvkat_4</t>
+  </si>
+  <si>
+    <t>IMPUTATION 4: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t>pvkat_5</t>
+  </si>
+  <si>
+    <t>This is an example.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,9 +266,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -540,14 +559,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -613,14 +634,12 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>22</v>
       </c>
@@ -649,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -662,14 +681,12 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>25</v>
       </c>
@@ -698,7 +715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -720,7 +737,6 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4"/>
       <c r="I4" t="s">
         <v>27</v>
       </c>
@@ -749,7 +765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -771,7 +787,6 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>29</v>
       </c>
@@ -800,7 +815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -822,7 +837,6 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6"/>
       <c r="I6" t="s">
         <v>32</v>
       </c>
@@ -851,7 +865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -873,7 +887,6 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>20</v>
       </c>
@@ -902,7 +915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -924,7 +937,6 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
@@ -953,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -975,7 +987,6 @@
       <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9"/>
       <c r="I9" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1026,7 +1037,6 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10"/>
       <c r="I10" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1068,14 +1078,12 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
       </c>
-      <c r="H11"/>
       <c r="I11" t="s">
         <v>46</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1126,7 +1134,6 @@
       <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="H12"/>
       <c r="I12" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +1184,6 @@
       <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="H13"/>
       <c r="I13" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1228,7 +1234,6 @@
       <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1279,7 +1284,6 @@
       <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="H15"/>
       <c r="I15" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1330,7 +1334,6 @@
       <c r="G16" t="s">
         <v>45</v>
       </c>
-      <c r="H16"/>
       <c r="I16" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1372,14 +1375,12 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17"/>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="H17"/>
       <c r="I17" t="s">
         <v>58</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1430,7 +1431,6 @@
       <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="H18"/>
       <c r="I18" t="s">
         <v>20</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1481,7 +1481,6 @@
       <c r="G19" t="s">
         <v>45</v>
       </c>
-      <c r="H19"/>
       <c r="I19" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1532,7 +1531,6 @@
       <c r="G20" t="s">
         <v>45</v>
       </c>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1583,7 +1581,6 @@
       <c r="G21" t="s">
         <v>45</v>
       </c>
-      <c r="H21"/>
       <c r="I21" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1634,7 +1631,6 @@
       <c r="G22" t="s">
         <v>45</v>
       </c>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>20</v>
       </c>
@@ -1665,6 +1661,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussejoh\Desktop\eatCodebook\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C466F2B2-EDEF-4492-ABCA-3650E36EE266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26632D45-404B-4558-905A-E13CB24CF7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>

--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -1,239 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussejoh\Desktop\eatCodebook\inst\extdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26632D45-404B-4558-905A-E13CB24CF7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="69">
-  <si>
-    <t>Var.Name</t>
-  </si>
-  <si>
-    <t>in.DS.und.SH</t>
-  </si>
-  <si>
-    <t>Unterteilung.im.Skalenhandbuch</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>LabelSH</t>
-  </si>
-  <si>
-    <t>Anmerkung.Var</t>
-  </si>
-  <si>
-    <t>Gliederung</t>
-  </si>
-  <si>
-    <t>Reihenfolge</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>rekodiert</t>
-  </si>
-  <si>
-    <t>QuelleSH</t>
-  </si>
-  <si>
-    <t>Instruktionen</t>
-  </si>
-  <si>
-    <t>Hintergrundmodell</t>
-  </si>
-  <si>
-    <t>HGM.Reihenfolge</t>
-  </si>
-  <si>
-    <t>HGM.Variable.erstellt.aus</t>
-  </si>
-  <si>
-    <t>intern.extern</t>
-  </si>
-  <si>
-    <t>Seitenumbruch.im.Inhaltsverzeichnis</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Schueler-ID</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>IDSCH</t>
-  </si>
-  <si>
-    <t>School-ID</t>
-  </si>
-  <si>
-    <t>varMetrisch</t>
-  </si>
-  <si>
-    <t>metrische Beispielvariable, Kompetenzwert</t>
-  </si>
-  <si>
-    <t>varOrdinal</t>
-  </si>
-  <si>
-    <t>ordinale Beispielvariable, Kompetenzstufe</t>
-  </si>
-  <si>
-    <t>Mueller (2019)</t>
-  </si>
-  <si>
-    <t>varCat</t>
-  </si>
-  <si>
-    <t>nominale Beispielvariable</t>
-  </si>
-  <si>
-    <t>skala1_item1</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Likert-Skalenindikator</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>skala1_item2</t>
-  </si>
-  <si>
-    <t>skala1_item3</t>
-  </si>
-  <si>
-    <t>skala1</t>
-  </si>
-  <si>
-    <t>Skala: Likert-Skalenwert</t>
-  </si>
-  <si>
-    <t>pv_pooled</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>PVs</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Plausible Value</t>
-  </si>
-  <si>
-    <t>pv_1</t>
-  </si>
-  <si>
-    <t>IMPUTATION 1: plausible value</t>
-  </si>
-  <si>
-    <t>pv_2</t>
-  </si>
-  <si>
-    <t>IMPUTATION 2: plausible value</t>
-  </si>
-  <si>
-    <t>pv_3</t>
-  </si>
-  <si>
-    <t>IMPUTATION 3: plausible value</t>
-  </si>
-  <si>
-    <t>pv_4</t>
-  </si>
-  <si>
-    <t>IMPUTATION 4: plausible value</t>
-  </si>
-  <si>
-    <t>pv_5</t>
-  </si>
-  <si>
-    <t>IMPUTATION 5: plausible value</t>
-  </si>
-  <si>
-    <t>pvkat_pooled</t>
-  </si>
-  <si>
-    <t>categorical plausible value</t>
-  </si>
-  <si>
-    <t>pvkat_1</t>
-  </si>
-  <si>
-    <t>IMPUTATION 1: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t>pvkat_2</t>
-  </si>
-  <si>
-    <t>IMPUTATION 2: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t>pvkat_3</t>
-  </si>
-  <si>
-    <t>IMPUTATION 3: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t>pvkat_4</t>
-  </si>
-  <si>
-    <t>IMPUTATION 4: Kompetenzstufe des plausible value</t>
-  </si>
-  <si>
-    <t>pvkat_5</t>
-  </si>
-  <si>
-    <t>This is an example.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t xml:space="preserve">Var.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in.DS.und.SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterteilung.im.Skalenhandbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabelSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkung.Var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gliederung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reihenfolge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rekodiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuelleSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hintergrundmodell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGM.Reihenfolge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGM.Variable.erstellt.aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intern.extern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenumbruch.im.Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schueler-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varMetrisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metrische Beispielvariable, Kompetenzwert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varOrdinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinale Beispielvariable, Kompetenzstufe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mueller (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nominale Beispielvariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skala1_item1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert-Skalenindikator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skala1_item2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skala1_item3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skala1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skala: Likert-Skalenwert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plausible Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 1: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 2: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 3: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 4: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 5: plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 1: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 2: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 3: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 4: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,18 +256,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -559,16 +540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -634,12 +613,14 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
+      <c r="E2"/>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>22</v>
       </c>
@@ -668,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -681,12 +662,14 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
+      <c r="H3"/>
       <c r="I3" t="s">
         <v>25</v>
       </c>
@@ -715,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -737,6 +720,7 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
+      <c r="H4"/>
       <c r="I4" t="s">
         <v>27</v>
       </c>
@@ -765,7 +749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -787,6 +771,7 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
+      <c r="H5"/>
       <c r="I5" t="s">
         <v>29</v>
       </c>
@@ -815,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -837,6 +822,7 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
+      <c r="H6"/>
       <c r="I6" t="s">
         <v>32</v>
       </c>
@@ -865,7 +851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -887,6 +873,7 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
+      <c r="H7"/>
       <c r="I7" t="s">
         <v>20</v>
       </c>
@@ -915,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -937,6 +924,7 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
+      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
@@ -965,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -987,6 +975,7 @@
       <c r="G9" t="s">
         <v>37</v>
       </c>
+      <c r="H9"/>
       <c r="I9" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1037,6 +1026,7 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
+      <c r="H10"/>
       <c r="I10" t="s">
         <v>41</v>
       </c>
@@ -1065,7 +1055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1078,12 +1068,14 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
+      <c r="E11"/>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
       </c>
+      <c r="H11"/>
       <c r="I11" t="s">
         <v>46</v>
       </c>
@@ -1112,7 +1104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1134,6 +1126,7 @@
       <c r="G12" t="s">
         <v>45</v>
       </c>
+      <c r="H12"/>
       <c r="I12" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1184,6 +1177,7 @@
       <c r="G13" t="s">
         <v>45</v>
       </c>
+      <c r="H13"/>
       <c r="I13" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1234,6 +1228,7 @@
       <c r="G14" t="s">
         <v>45</v>
       </c>
+      <c r="H14"/>
       <c r="I14" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1284,6 +1279,7 @@
       <c r="G15" t="s">
         <v>45</v>
       </c>
+      <c r="H15"/>
       <c r="I15" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1334,6 +1330,7 @@
       <c r="G16" t="s">
         <v>45</v>
       </c>
+      <c r="H16"/>
       <c r="I16" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1375,12 +1372,14 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
+      <c r="E17"/>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
       </c>
+      <c r="H17"/>
       <c r="I17" t="s">
         <v>58</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1431,6 +1430,7 @@
       <c r="G18" t="s">
         <v>45</v>
       </c>
+      <c r="H18"/>
       <c r="I18" t="s">
         <v>20</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1481,6 +1481,7 @@
       <c r="G19" t="s">
         <v>45</v>
       </c>
+      <c r="H19"/>
       <c r="I19" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1531,6 +1532,7 @@
       <c r="G20" t="s">
         <v>45</v>
       </c>
+      <c r="H20"/>
       <c r="I20" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1581,6 +1583,7 @@
       <c r="G21" t="s">
         <v>45</v>
       </c>
+      <c r="H21"/>
       <c r="I21" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1631,6 +1634,7 @@
       <c r="G22" t="s">
         <v>45</v>
       </c>
+      <c r="H22"/>
       <c r="I22" t="s">
         <v>20</v>
       </c>
@@ -1661,6 +1665,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/inst/extdata/example_varInfo.xlsx
+++ b/inst/extdata/example_varInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">Var.Name</t>
   </si>
@@ -89,6 +89,9 @@
     <t xml:space="preserve">IDSCH</t>
   </si>
   <si>
+    <t xml:space="preserve">Schul-ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">School-ID</t>
   </si>
   <si>
@@ -122,7 +125,7 @@
     <t xml:space="preserve">Scale</t>
   </si>
   <si>
-    <t xml:space="preserve">Likert-Skalenindikator</t>
+    <t xml:space="preserve">Likert-Skalenindikator 1</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -131,9 +134,15 @@
     <t xml:space="preserve">skala1_item2</t>
   </si>
   <si>
+    <t xml:space="preserve">Likert-Skalenindikator 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">skala1_item3</t>
   </si>
   <si>
+    <t xml:space="preserve">Likert-Skalenindikator 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">skala1</t>
   </si>
   <si>
@@ -185,37 +194,76 @@
     <t xml:space="preserve">IMPUTATION 5: plausible value</t>
   </si>
   <si>
+    <t xml:space="preserve">pvord_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 1: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 2: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 3: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 4: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 5: Kompetenzstufe des plausible value</t>
+  </si>
+  <si>
     <t xml:space="preserve">pvkat_pooled</t>
   </si>
   <si>
-    <t xml:space="preserve">categorical plausible value</t>
+    <t xml:space="preserve">nominal plausible value</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_1</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPUTATION 1: Kompetenzstufe des plausible value</t>
+    <t xml:space="preserve">IMPUTATION 1: Kompetenzkategorie des plausible value</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_2</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPUTATION 2: Kompetenzstufe des plausible value</t>
+    <t xml:space="preserve">IMPUTATION 2: Kompetenzkategorie des plausible value</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_3</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPUTATION 3: Kompetenzstufe des plausible value</t>
+    <t xml:space="preserve">IMPUTATION 3: Kompetenzkategorie des plausible value</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_4</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPUTATION 4: Kompetenzstufe des plausible value</t>
+    <t xml:space="preserve">IMPUTATION 4: Kompetenzkategorie des plausible value</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUTATION 5: Kompetenzkategorie des plausible value</t>
   </si>
 </sst>
 </file>
@@ -662,7 +710,9 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -671,7 +721,7 @@
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -700,7 +750,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -712,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -722,7 +772,7 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -751,7 +801,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -763,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -773,13 +823,13 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -802,7 +852,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -814,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -824,7 +874,7 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -853,25 +903,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -904,25 +954,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
@@ -955,25 +1005,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
@@ -1006,29 +1056,29 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1057,13 +1107,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1073,11 +1123,11 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1106,25 +1156,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
@@ -1157,25 +1207,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
@@ -1208,25 +1258,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
@@ -1259,25 +1309,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
@@ -1310,25 +1360,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
@@ -1361,13 +1411,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1377,11 +1427,11 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1410,25 +1460,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
@@ -1461,25 +1511,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
@@ -1512,25 +1562,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
@@ -1563,25 +1613,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
@@ -1614,25 +1664,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
@@ -1660,6 +1710,310 @@
         <v>20</v>
       </c>
       <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="s">
         <v>23</v>
       </c>
     </row>
